--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiraosa/quelcode/kadai/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB2E9C-B501-C040-8943-251CFA092AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B534E4-649C-4144-91A2-0F98C72A44CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="140">
   <si>
     <t>改定履歴</t>
   </si>
@@ -999,12 +999,42 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>1:削除済み</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DNP ShueiAntiStd B"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>削除済み</t>
+    </r>
+  </si>
+  <si>
+    <t>1:完了</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1:ダイレクトチャット</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1:ファイル送信許可</t>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1120,6 +1150,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="DNP ShueiAntiStd B"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1183,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1236,9 +1272,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1481,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1495,9 +1528,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1592,13 +1625,13 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>44021</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1628,7 +1661,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="13">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>44021</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1664,7 +1697,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="13">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>44021</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1700,7 +1733,7 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="13">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>44021</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1736,7 +1769,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="13">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>44021</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -30399,49 +30432,49 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="27"/>
-    <col min="2" max="2" width="3.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="27"/>
-    <col min="4" max="4" width="22" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="27"/>
-    <col min="6" max="6" width="5.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="14.5" style="26"/>
+    <col min="2" max="2" width="3.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="26"/>
+    <col min="4" max="4" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="26"/>
+    <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -30547,7 +30580,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="24"/>
@@ -30673,7 +30706,9 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="7">
@@ -30691,7 +30726,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I13" s="24"/>
@@ -30714,7 +30749,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="24"/>
@@ -30742,44 +30777,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="27"/>
-    <col min="2" max="2" width="3.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="27"/>
-    <col min="4" max="4" width="22" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="27"/>
-    <col min="6" max="6" width="5.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="14.5" style="26"/>
+    <col min="2" max="2" width="3.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="26"/>
+    <col min="4" max="4" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="26"/>
+    <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -30831,7 +30866,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -30858,7 +30893,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I6" s="24" t="s">
@@ -30883,7 +30918,7 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="24"/>
@@ -30906,49 +30941,49 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="27"/>
-    <col min="2" max="2" width="3.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="27"/>
-    <col min="4" max="4" width="22" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="27"/>
-    <col min="6" max="6" width="5.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="14.5" style="26"/>
+    <col min="2" max="2" width="3.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="26"/>
+    <col min="4" max="4" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="26"/>
+    <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31111,7 +31146,9 @@
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="B10" s="7">
@@ -31204,7 +31241,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -31229,49 +31266,49 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="27"/>
-    <col min="2" max="2" width="3.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="27"/>
-    <col min="6" max="6" width="5.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="14.5" style="26"/>
+    <col min="2" max="2" width="3.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="26"/>
+    <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="14">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31292,7 +31329,7 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -31323,7 +31360,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -31352,7 +31389,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="24"/>
@@ -31377,7 +31414,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="24" t="s">
@@ -31402,7 +31439,7 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31427,12 +31464,14 @@
       <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>103</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="B10" s="7">
@@ -31452,7 +31491,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>103</v>
       </c>
       <c r="I10" s="24" t="s">
@@ -31481,12 +31520,14 @@
       <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="7">
@@ -31504,7 +31545,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I12" s="24"/>
@@ -31529,7 +31570,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -31554,7 +31595,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="24"/>
@@ -31579,7 +31620,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I15" s="24" t="s">
@@ -31603,50 +31644,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5A12D-EDED-3645-B29D-5B3C24F76DEF}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="27"/>
-    <col min="2" max="2" width="3.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="27"/>
-    <col min="6" max="6" width="5.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="14.5" style="26"/>
+    <col min="2" max="2" width="3.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="26"/>
+    <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="9" max="10" width="14.5" style="26"/>
+    <col min="11" max="11" width="19.33203125" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="14">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31661,13 +31704,13 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -31698,7 +31741,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -31727,7 +31770,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="24"/>
@@ -31752,7 +31795,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31777,12 +31820,14 @@
       <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14">
       <c r="B9" s="7">
@@ -31804,12 +31849,14 @@
       <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="B10" s="7">
@@ -31831,12 +31878,14 @@
       <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>103</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14">
       <c r="B11" s="7">
@@ -31854,7 +31903,7 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>103</v>
       </c>
       <c r="I11" s="24"/>
@@ -31879,7 +31928,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I12" s="24" t="s">
@@ -31904,7 +31953,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I13" s="24"/>
@@ -31929,7 +31978,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="24" t="s">
@@ -31958,7 +32007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31974,31 +32023,31 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -32136,7 +32185,7 @@
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -32273,25 +32322,25 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiraosa/quelcode/kadai/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B534E4-649C-4144-91A2-0F98C72A44CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23033F92-E813-F743-B7FA-E47E0F23F64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8980" yWindow="-19120" windowWidth="30800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="141">
   <si>
     <t>改定履歴</t>
   </si>
@@ -723,10 +723,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>タスク担当ユーザーID</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>期限</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1029,12 +1025,39 @@
     <t>1:ファイル送信許可</t>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タスク担当ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>タスク担当ユーザーIDのデータ型の修正</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1156,6 +1179,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1219,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1294,6 +1329,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1514,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1629,13 +1667,13 @@
         <v>44021</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1665,13 +1703,13 @@
         <v>44021</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1701,13 +1739,13 @@
         <v>44021</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1737,13 +1775,13 @@
         <v>44021</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1773,13 +1811,13 @@
         <v>44021</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1804,11 +1842,19 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:26" ht="14">
+      <c r="A9" s="12">
+        <v>44022</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -30431,7 +30477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9EA63A-B35F-0542-B8EA-881CBAD5F682}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -30517,23 +30563,23 @@
         <v>51</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -30546,17 +30592,17 @@
         <v>52</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -30571,17 +30617,17 @@
         <v>53</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -30596,17 +30642,17 @@
         <v>54</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
@@ -30621,10 +30667,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="20">
         <v>1000</v>
@@ -30644,10 +30690,10 @@
         <v>56</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="20">
         <v>13</v>
@@ -30667,10 +30713,10 @@
         <v>57</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="20">
         <v>13</v>
@@ -30690,10 +30736,10 @@
         <v>58</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
@@ -30702,12 +30748,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -30719,15 +30765,15 @@
         <v>59</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
       <c r="H13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -30742,15 +30788,15 @@
         <v>60</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
       <c r="H14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -30793,7 +30839,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -30857,20 +30903,20 @@
         <v>61</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="24"/>
@@ -30884,20 +30930,20 @@
         <v>62</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="20">
         <v>11</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -30911,15 +30957,15 @@
         <v>63</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="24"/>
       <c r="H7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -31026,23 +31072,23 @@
         <v>67</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -31055,17 +31101,17 @@
         <v>68</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="20">
         <v>1000</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -31080,10 +31126,10 @@
         <v>69</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
@@ -31103,20 +31149,20 @@
         <v>61</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="20">
         <v>11</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31130,10 +31176,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31142,12 +31188,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31159,15 +31205,15 @@
         <v>70</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -31182,20 +31228,20 @@
         <v>71</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="20">
         <v>11</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="19"/>
@@ -31209,15 +31255,15 @@
         <v>60</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -31232,20 +31278,20 @@
         <v>72</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="21">
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -31266,7 +31312,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31297,7 +31343,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -31351,23 +31397,23 @@
         <v>74</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -31380,17 +31426,17 @@
         <v>75</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="20">
         <v>1000</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -31401,24 +31447,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>76</v>
+      <c r="C7" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31429,13 +31475,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="24"/>
@@ -31450,13 +31496,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31465,12 +31511,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31482,20 +31528,20 @@
         <v>61</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="20">
         <v>11</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="19"/>
@@ -31509,10 +31555,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="20">
         <v>1</v>
@@ -31521,12 +31567,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -31538,15 +31584,15 @@
         <v>59</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -31558,23 +31604,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="21">
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -31588,15 +31634,15 @@
         <v>60</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
       <c r="H14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -31611,20 +31657,20 @@
         <v>72</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="21">
         <v>11</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -31644,7 +31690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5A12D-EDED-3645-B29D-5B3C24F76DEF}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -31668,7 +31714,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -31678,7 +31724,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -31705,7 +31751,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
@@ -31732,23 +31778,23 @@
         <v>61</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -31758,20 +31804,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -31783,13 +31829,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="20">
         <v>1000</v>
@@ -31806,13 +31852,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
@@ -31821,12 +31867,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31835,13 +31881,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31850,12 +31896,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31867,10 +31913,10 @@
         <v>58</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
@@ -31879,12 +31925,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -31896,15 +31942,15 @@
         <v>59</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="24"/>
       <c r="H11" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -31916,23 +31962,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="20">
         <v>11</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="19"/>
@@ -31946,15 +31992,15 @@
         <v>60</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
       <c r="H13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -31969,20 +32015,20 @@
         <v>72</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="20">
         <v>11</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiraosa/quelcode/kadai/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23033F92-E813-F743-B7FA-E47E0F23F64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43137C-D628-0E4C-9AFB-1595228EB4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8980" yWindow="-19120" windowWidth="30800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="30800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="142">
   <si>
     <t>改定履歴</t>
   </si>
@@ -909,10 +909,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>file</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>updated_by</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1048,6 +1044,20 @@
   <si>
     <t>タスク担当ユーザーIDのデータ型の修正</t>
     <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>物理名の修正</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ブツリメイノ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t xml:space="preserve">シュウセイ </t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -1553,7 +1563,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1739,10 +1749,10 @@
         <v>44021</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>114</v>
@@ -1775,10 +1785,10 @@
         <v>44021</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>114</v>
@@ -1811,10 +1821,10 @@
         <v>44021</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>114</v>
@@ -1847,10 +1857,10 @@
         <v>44022</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>114</v>
@@ -1879,10 +1889,18 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="13">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="12">
+        <v>44022</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -30753,7 +30771,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -30987,7 +31005,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31126,7 +31144,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>98</v>
@@ -31162,7 +31180,7 @@
         <v>102</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31193,7 +31211,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31228,7 +31246,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>97</v>
@@ -31241,7 +31259,7 @@
         <v>102</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="19"/>
@@ -31278,7 +31296,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>97</v>
@@ -31291,7 +31309,7 @@
         <v>102</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -31448,10 +31466,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>97</v>
@@ -31464,7 +31482,7 @@
         <v>102</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31478,7 +31496,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>100</v>
@@ -31499,7 +31517,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>99</v>
@@ -31516,7 +31534,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31541,7 +31559,7 @@
         <v>102</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="19"/>
@@ -31572,7 +31590,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -31607,7 +31625,7 @@
         <v>78</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>97</v>
@@ -31620,7 +31638,7 @@
         <v>101</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -31657,7 +31675,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>97</v>
@@ -31670,7 +31688,7 @@
         <v>102</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -31751,7 +31769,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
@@ -31807,7 +31825,7 @@
         <v>82</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>98</v>
@@ -31832,7 +31850,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>98</v>
@@ -31855,7 +31873,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>99</v>
@@ -31872,7 +31890,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31884,7 +31902,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>99</v>
@@ -31901,7 +31919,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31930,7 +31948,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -31965,7 +31983,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>97</v>
@@ -31978,7 +31996,7 @@
         <v>102</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="19"/>
@@ -32015,7 +32033,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>97</v>
@@ -32028,7 +32046,7 @@
         <v>102</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiraosa/quelcode/kadai/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43137C-D628-0E4C-9AFB-1595228EB4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E26D28-FACA-814C-BEB1-20C535D4E5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="30800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
   <si>
     <t>改定履歴</t>
   </si>
@@ -952,10 +952,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>is_attached_file</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>is_direct_chat</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1018,10 +1014,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>1:ファイル送信許可</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1058,6 +1050,27 @@
       <t xml:space="preserve">ブツリメイノ </t>
     </rPh>
     <rPh sb="4" eb="6">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1:ファイル送信不可</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>is_unsendable_file</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>物理名の修正</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ブツリメイノ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t xml:space="preserve">シュウセイ </t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -1319,15 +1332,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,6 +1346,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1562,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1673,13 +1686,13 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14">
-      <c r="A4" s="34">
+      <c r="A4" s="29">
         <v>44021</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="30" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1709,7 +1722,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="13">
-      <c r="A5" s="34">
+      <c r="A5" s="29">
         <v>44021</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1745,7 +1758,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="13">
-      <c r="A6" s="34">
+      <c r="A6" s="29">
         <v>44021</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1781,14 +1794,14 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="13">
-      <c r="A7" s="34">
+      <c r="A7" s="29">
         <v>44021</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>114</v>
@@ -1817,14 +1830,14 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="13">
-      <c r="A8" s="34">
+      <c r="A8" s="29">
         <v>44021</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>114</v>
@@ -1857,10 +1870,10 @@
         <v>44022</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>114</v>
@@ -1896,7 +1909,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>114</v>
@@ -1925,10 +1938,18 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="12">
+        <v>44024</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -30516,29 +30537,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -30644,7 +30665,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="24"/>
@@ -30771,7 +30792,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -30790,7 +30811,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="24"/>
@@ -30813,7 +30834,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="24"/>
@@ -30856,29 +30877,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -30930,7 +30951,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -30957,7 +30978,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="24" t="s">
@@ -30982,7 +31003,7 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="24"/>
@@ -31025,29 +31046,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31144,7 +31165,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>98</v>
@@ -31211,7 +31232,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31305,7 +31326,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -31342,7 +31363,7 @@
     <col min="5" max="5" width="14.5" style="26"/>
     <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="31" customWidth="1"/>
     <col min="9" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
@@ -31350,29 +31371,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="14">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31393,7 +31414,7 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -31424,7 +31445,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -31453,7 +31474,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="28" t="s">
         <v>101</v>
       </c>
       <c r="I6" s="24"/>
@@ -31465,8 +31486,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>138</v>
+      <c r="C7" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>120</v>
@@ -31478,7 +31499,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="24" t="s">
@@ -31503,7 +31524,7 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31528,13 +31549,13 @@
       <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31555,7 +31576,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I10" s="24" t="s">
@@ -31584,13 +31605,13 @@
       <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="33" t="s">
         <v>101</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -31609,7 +31630,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="28" t="s">
         <v>101</v>
       </c>
       <c r="I12" s="24"/>
@@ -31634,7 +31655,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="28" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -31659,7 +31680,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="24"/>
@@ -31684,7 +31705,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="24" t="s">
@@ -31708,8 +31729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5A12D-EDED-3645-B29D-5B3C24F76DEF}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31721,7 +31742,7 @@
     <col min="5" max="5" width="14.5" style="26"/>
     <col min="6" max="6" width="5.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="31" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="26"/>
     <col min="11" max="11" width="19.33203125" style="26" customWidth="1"/>
     <col min="12" max="16384" width="14.5" style="26"/>
@@ -31731,29 +31752,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="14">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31768,13 +31789,13 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>128</v>
+      <c r="F4" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -31805,7 +31826,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -31834,7 +31855,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="28" t="s">
         <v>101</v>
       </c>
       <c r="I6" s="24"/>
@@ -31859,7 +31880,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31873,7 +31894,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>99</v>
@@ -31884,13 +31905,13 @@
       <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31902,7 +31923,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>99</v>
@@ -31913,13 +31934,13 @@
       <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>101</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31942,13 +31963,13 @@
       <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -31967,7 +31988,7 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="24"/>
@@ -31992,7 +32013,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I12" s="24" t="s">
@@ -32017,7 +32038,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="24"/>
@@ -32042,7 +32063,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="24"/>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="24" t="s">
@@ -32087,31 +32108,31 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -32386,25 +32407,25 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiraosa/quelcode/kadai/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E26D28-FACA-814C-BEB1-20C535D4E5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1939D2-60EF-9F4E-9A28-B04A4A93A01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="144">
   <si>
     <t>改定履歴</t>
   </si>
@@ -1055,22 +1055,32 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>1:ファイル送信不可</t>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">フカ </t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>is_unsendable_file</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>物理名の修正</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ブツリメイノ </t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1:ファイル送信許可</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">キョカ </t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>is_sendable_file</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>物理名とデフォルト値の修正</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ブツリメイノ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t xml:space="preserve">シュウセイ </t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -1575,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1945,7 +1955,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>114</v>
@@ -1974,10 +1984,18 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="13">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="12">
+        <v>44025</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -31729,8 +31747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5A12D-EDED-3645-B29D-5B3C24F76DEF}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31894,7 +31912,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>99</v>
@@ -31903,7 +31921,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>102</v>
@@ -31911,7 +31929,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
